--- a/public/files/excel/angiang.xlsx
+++ b/public/files/excel/angiang.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\api\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VNE3\Desktop\Project\DHCD\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+  <si>
+    <t xml:space="preserve">Nguyễn Thiện </t>
+  </si>
+  <si>
+    <t>Phú</t>
+  </si>
   <si>
     <t>29/6/1987</t>
   </si>
@@ -38,6 +44,12 @@
     <t>Tỉnh ủy viên, Bí thư Đảng đoàn, Chủ tịch LĐLĐ tỉnh An Giang</t>
   </si>
   <si>
+    <t xml:space="preserve">Huỳnh Thị </t>
+  </si>
+  <si>
+    <t>Cúc</t>
+  </si>
+  <si>
     <t>19/6/1996</t>
   </si>
   <si>
@@ -47,6 +59,12 @@
     <t>Huyện ủy viên, Chủ tịch LĐLĐ huyện Tri Tôn, An Giang</t>
   </si>
   <si>
+    <t xml:space="preserve">Phan Thị </t>
+  </si>
+  <si>
+    <t>Diễm</t>
+  </si>
+  <si>
     <t>30/9/2002</t>
   </si>
   <si>
@@ -56,15 +74,36 @@
     <t>Ủy viên Đảng đoàn, Phó Chủ tịch LĐLĐ tỉnh An Giang</t>
   </si>
   <si>
+    <t xml:space="preserve">Nguyễn Nhật </t>
+  </si>
+  <si>
+    <t>Tiến</t>
+  </si>
+  <si>
     <t>Ủy viên Đảng đoàn, UV BTV, Trưởng Ban Tổ chức LĐLĐ tỉnh AG</t>
   </si>
   <si>
+    <t>Hồ Đăng</t>
+  </si>
+  <si>
+    <t>Dương</t>
+  </si>
+  <si>
     <t>Thành ủy viên, Chủ tịch LĐLĐ TP. Long Xuyên, An Giang</t>
   </si>
   <si>
+    <t xml:space="preserve">Mã Lan </t>
+  </si>
+  <si>
+    <t>Xuân</t>
+  </si>
+  <si>
     <t>Phó Bí thư Đảng ủy, Phó Chánh VP Ủy ban Nhân dân tỉnh An Giang</t>
   </si>
   <si>
+    <t>Dương Thị Thu</t>
+  </si>
+  <si>
     <t>BS</t>
   </si>
   <si>
@@ -72,94 +111,67 @@
   </si>
   <si>
     <t>Trưởng phòng Tổ chức Cán bộ, Bệnh viện Đa khoa Trung tâm AG, Phó Chủ tịch Công đoàn ngành Y tế, Ủy viên Ban Chấp hành LĐLĐ tỉnh An Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Thị Thanh </t>
+  </si>
+  <si>
+    <t>Hường</t>
   </si>
   <si>
     <t>Bí thư Chi bộ Xí nghiệp, ĐUV Đảng Bộ, Giám đốc Xí nghiệp Bao bì trực thuộc Cty TNHH MTV Xây lắp An Giang.
 Ủy viên Ban Thường vụ Liên đoàn Lao động tỉnh An Giang.</t>
   </si>
   <si>
+    <t>Nguyễn Văn</t>
+  </si>
+  <si>
+    <t>Dũng</t>
+  </si>
+  <si>
     <t>SC</t>
   </si>
   <si>
     <t>Bí thư chi bộ, Đảng ủy viên, Trưởng phòng Kế hoạch sản xuất và Điều độ, Công ty Cổ phần Xuất Nhập khẩu Thủy sản An Giang</t>
   </si>
   <si>
+    <t xml:space="preserve">Nguyễn Thị Kim </t>
+  </si>
+  <si>
+    <t>Oanh</t>
+  </si>
+  <si>
     <t>CĐ</t>
   </si>
   <si>
     <t>Trợ lý Phòng nhân sự, Công ty TNHH An Giang Samho.</t>
   </si>
   <si>
+    <t>Hồ Minh</t>
+  </si>
+  <si>
+    <t>Triết</t>
+  </si>
+  <si>
     <t>Trưởng phòng Tổ chức – Hành chính, Cty TNHH May XNK Đức Thành.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nguyễn Thiện </t>
-  </si>
-  <si>
-    <t>Phú</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huỳnh Thị </t>
-  </si>
-  <si>
-    <t>Cúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phan Thị </t>
-  </si>
-  <si>
-    <t>Diễm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Nhật </t>
-  </si>
-  <si>
-    <t>Tiến</t>
-  </si>
-  <si>
-    <t>Hồ Đăng</t>
-  </si>
-  <si>
-    <t>Dương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mã Lan </t>
-  </si>
-  <si>
-    <t>Xuân</t>
-  </si>
-  <si>
-    <t>Dương Thị Thu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Thị Thanh </t>
-  </si>
-  <si>
-    <t>Hường</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn</t>
-  </si>
-  <si>
-    <t>Dũng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Thị Kim </t>
-  </si>
-  <si>
-    <t>Oanh</t>
-  </si>
-  <si>
-    <t>Hồ Minh</t>
-  </si>
-  <si>
-    <t>Triết</t>
+    <t>7/11/2000</t>
+  </si>
+  <si>
+    <t>10/12/1994</t>
+  </si>
+  <si>
+    <t>7/1/2002</t>
+  </si>
+  <si>
+    <t>1/3/1999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,9 +201,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -255,9 +268,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -290,9 +303,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -472,271 +485,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="142.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="144.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1963</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>1973</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>1979</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>1977</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>1961</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1">
-        <v>1963</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="D6">
+        <v>1975</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>1968</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>1968</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1">
-        <v>1973</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1">
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>1976</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>1987</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
         <v>1979</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1977</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1">
-        <v>36718</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1961</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
-        <v>34619</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>1975</v>
-      </c>
-      <c r="E6" s="1">
-        <v>37438</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1">
-        <v>1968</v>
-      </c>
-      <c r="E7" s="1">
-        <v>36163</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1">
-        <v>1968</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1976</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1">
-        <v>1987</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="1">
-        <v>1979</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>21</v>
+      <c r="I11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/excel/angiang.xlsx
+++ b/public/files/excel/angiang.xlsx
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +523,7 @@
         <v>5</v>
       </c>
       <c r="I1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
         <v>15</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -601,7 +601,7 @@
         <v>18</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -627,7 +627,7 @@
         <v>21</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -653,7 +653,7 @@
         <v>24</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>28</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>31</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>35</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -748,7 +748,7 @@
         <v>39</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -769,7 +769,7 @@
         <v>42</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
